--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,94 +40,97 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>interesting</t>
@@ -139,73 +142,67 @@
     <t>good</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>real</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>twitter</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>watching</t>
-  </si>
-  <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>dilemma</t>
   </si>
   <si>
     <t>…</t>
@@ -569,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -688,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>35</v>
@@ -738,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K5">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9545454545454546</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9519230769230769</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C7">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,10 +862,10 @@
         <v>0.7368421052631579</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,13 +909,13 @@
         <v>39</v>
       </c>
       <c r="K8">
-        <v>0.7241379310344828</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K9">
-        <v>0.68</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K10">
-        <v>0.631578947368421</v>
+        <v>0.64</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,7 +1035,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -1056,31 +1053,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K11">
-        <v>0.6111111111111112</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L11">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>11</v>
-      </c>
-      <c r="M11">
-        <v>11</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7692307692307693</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>43</v>
@@ -1138,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7368421052631579</v>
+        <v>0.6875</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,10 +1162,10 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,31 +1203,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K14">
-        <v>0.4848484848484849</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L14">
+        <v>17</v>
+      </c>
+      <c r="M14">
+        <v>17</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>16</v>
-      </c>
-      <c r="M14">
-        <v>16</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6470588235294118</v>
+        <v>0.625</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>46</v>
@@ -1265,10 +1262,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6086956521739131</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1306,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>0.3888888888888889</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1330,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1338,13 +1335,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1356,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K17">
-        <v>0.2604735883424408</v>
+        <v>0.261384335154827</v>
       </c>
       <c r="L17">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M17">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1380,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1388,37 +1385,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>21</v>
-      </c>
-      <c r="D18">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K18">
-        <v>0.2372881355932203</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1430,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1438,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5942028985507246</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C19">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1456,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K19">
-        <v>0.1846153846153846</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L19">
         <v>12</v>
@@ -1480,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1488,13 +1485,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1506,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K20">
-        <v>0.1789473684210526</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1530,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1538,7 +1535,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
         <v>13</v>
@@ -1556,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K21">
-        <v>0.1666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M21">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1580,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1588,13 +1585,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5384615384615384</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1606,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K22">
-        <v>0.1529411764705882</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1630,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1638,13 +1635,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5319148936170213</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1656,19 +1653,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K23">
-        <v>0.1475409836065574</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1680,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1688,13 +1685,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4615384615384616</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1706,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K24">
-        <v>0.1408450704225352</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1730,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1738,13 +1735,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4285714285714285</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1756,19 +1753,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K25">
-        <v>0.072992700729927</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1780,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1788,13 +1785,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3928571428571428</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1806,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K26">
-        <v>0.04969879518072289</v>
+        <v>0.05873493975903615</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1830,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1838,37 +1835,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1794871794871795</v>
+        <v>0.0302013422818792</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>64</v>
+        <v>289</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K27">
-        <v>0.04593639575971731</v>
+        <v>0.05740740740740741</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1880,39 +1877,15 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>270</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.0505050505050505</v>
-      </c>
-      <c r="C28">
-        <v>15</v>
-      </c>
-      <c r="D28">
-        <v>17</v>
-      </c>
-      <c r="E28">
-        <v>0.12</v>
-      </c>
-      <c r="F28">
-        <v>0.88</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>282</v>
-      </c>
       <c r="J28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K28">
-        <v>0.04105571847507331</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="L28">
         <v>14</v>
@@ -1930,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>327</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1938,13 +1911,13 @@
         <v>60</v>
       </c>
       <c r="K29">
-        <v>0.04097311139564661</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1956,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>749</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1964,13 +1937,13 @@
         <v>61</v>
       </c>
       <c r="K30">
-        <v>0.03571428571428571</v>
+        <v>0.0353356890459364</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1982,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>594</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1990,25 +1963,25 @@
         <v>62</v>
       </c>
       <c r="K31">
-        <v>0.03518518518518519</v>
+        <v>0.02948717948717949</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>521</v>
+        <v>757</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2016,50 +1989,24 @@
         <v>63</v>
       </c>
       <c r="K32">
-        <v>0.03492063492063492</v>
+        <v>0.02536023054755043</v>
       </c>
       <c r="L32">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="M32">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K33">
-        <v>0.02592165898617511</v>
-      </c>
-      <c r="L33">
-        <v>45</v>
-      </c>
-      <c r="M33">
-        <v>45</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
         <v>1691</v>
       </c>
     </row>
